--- a/pa-temp-fix-system.com/php/export/sp/sku投放失败明细.xlsx
+++ b/pa-temp-fix-system.com/php/export/sp/sku投放失败明细.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7575"/>
+    <workbookView windowWidth="32295" windowHeight="17970"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
   <si>
-    <t>sku 清单</t>
+    <t>skuId</t>
   </si>
   <si>
     <t>fba上架编号</t>
@@ -1336,16 +1336,16 @@
   <dimension ref="A1:B24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelCol="1"/>
   <cols>
-    <col min="1" max="1" width="16.875" customWidth="1"/>
-    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="1" max="1" width="16.8755555555556" customWidth="1"/>
+    <col min="2" max="2" width="18.2488888888889" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="18.75" spans="1:2">
+    <row r="1" ht="20.25" spans="1:2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1353,7 +1353,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" ht="14.25" spans="1:2">
+    <row r="2" ht="17.25" spans="1:2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -1361,7 +1361,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" ht="14.25" spans="1:2">
+    <row r="3" ht="17.25" spans="1:2">
       <c r="A3" s="2" t="s">
         <v>4</v>
       </c>
@@ -1369,7 +1369,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" ht="14.25" spans="1:2">
+    <row r="4" ht="17.25" spans="1:2">
       <c r="A4" s="2" t="s">
         <v>6</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="5" ht="14.25" spans="1:2">
+    <row r="5" ht="17.25" spans="1:2">
       <c r="A5" s="2" t="s">
         <v>8</v>
       </c>
@@ -1385,7 +1385,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="6" ht="14.25" spans="1:2">
+    <row r="6" ht="17.25" spans="1:2">
       <c r="A6" s="2" t="s">
         <v>10</v>
       </c>
@@ -1393,7 +1393,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="7" ht="14.25" spans="1:2">
+    <row r="7" ht="17.25" spans="1:2">
       <c r="A7" s="2" t="s">
         <v>12</v>
       </c>
@@ -1401,7 +1401,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="8" ht="14.25" spans="1:2">
+    <row r="8" ht="17.25" spans="1:2">
       <c r="A8" s="2" t="s">
         <v>14</v>
       </c>
@@ -1409,7 +1409,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" ht="14.25" spans="1:2">
+    <row r="9" ht="17.25" spans="1:2">
       <c r="A9" s="2" t="s">
         <v>16</v>
       </c>
@@ -1417,7 +1417,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="10" ht="14.25" spans="1:2">
+    <row r="10" ht="17.25" spans="1:2">
       <c r="A10" s="2" t="s">
         <v>18</v>
       </c>
@@ -1425,7 +1425,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="11" ht="14.25" spans="1:2">
+    <row r="11" ht="17.25" spans="1:2">
       <c r="A11" s="2" t="s">
         <v>20</v>
       </c>
@@ -1433,7 +1433,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" ht="14.25" spans="1:2">
+    <row r="12" ht="17.25" spans="1:2">
       <c r="A12" s="2" t="s">
         <v>22</v>
       </c>
@@ -1441,7 +1441,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="13" ht="14.25" spans="1:2">
+    <row r="13" ht="17.25" spans="1:2">
       <c r="A13" s="2" t="s">
         <v>24</v>
       </c>
@@ -1449,7 +1449,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="14" ht="14.25" spans="1:2">
+    <row r="14" ht="17.25" spans="1:2">
       <c r="A14" s="2" t="s">
         <v>26</v>
       </c>
@@ -1457,7 +1457,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="15" ht="14.25" spans="1:2">
+    <row r="15" ht="17.25" spans="1:2">
       <c r="A15" s="2" t="s">
         <v>28</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="16" ht="14.25" spans="1:2">
+    <row r="16" ht="17.25" spans="1:2">
       <c r="A16" s="2" t="s">
         <v>30</v>
       </c>
@@ -1473,7 +1473,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" ht="14.25" spans="1:2">
+    <row r="17" ht="17.25" spans="1:2">
       <c r="A17" s="2" t="s">
         <v>32</v>
       </c>
@@ -1481,7 +1481,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="18" ht="14.25" spans="1:2">
+    <row r="18" ht="17.25" spans="1:2">
       <c r="A18" s="2" t="s">
         <v>34</v>
       </c>
@@ -1489,7 +1489,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="19" ht="14.25" spans="1:2">
+    <row r="19" ht="17.25" spans="1:2">
       <c r="A19" s="2" t="s">
         <v>36</v>
       </c>
@@ -1497,7 +1497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="20" ht="14.25" spans="1:2">
+    <row r="20" ht="17.25" spans="1:2">
       <c r="A20" s="2" t="s">
         <v>38</v>
       </c>
@@ -1505,7 +1505,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" ht="14.25" spans="1:2">
+    <row r="21" ht="17.25" spans="1:2">
       <c r="A21" s="2" t="s">
         <v>40</v>
       </c>
@@ -1513,7 +1513,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="22" ht="14.25" spans="1:2">
+    <row r="22" ht="17.25" spans="1:2">
       <c r="A22" s="2" t="s">
         <v>42</v>
       </c>
@@ -1521,7 +1521,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="23" ht="14.25" spans="1:2">
+    <row r="23" ht="17.25" spans="1:2">
       <c r="A23" s="2" t="s">
         <v>44</v>
       </c>
@@ -1529,7 +1529,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="24" ht="14.25" spans="1:2">
+    <row r="24" ht="17.25" spans="1:2">
       <c r="A24" s="2" t="s">
         <v>46</v>
       </c>
